--- a/data/league_data/spain/21/spain_possession.xlsx
+++ b/data/league_data/spain/21/spain_possession.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED33674D-A0C5-C243-B8A1-1AAE00F6D662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018E3D80-69B4-E34F-B8C1-0E65625A761D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="609">
   <si>
     <t>Touches</t>
   </si>
@@ -1555,9 +1555,6 @@
     <t>Facundo Pellistri</t>
   </si>
   <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
     <t>Eden Hazard</t>
   </si>
   <si>
@@ -1600,9 +1597,6 @@
     <t>Kenan Kodro</t>
   </si>
   <si>
-    <t>Javi Martínez</t>
-  </si>
-  <si>
     <t>Okay Yokuşlu</t>
   </si>
   <si>
@@ -1838,6 +1832,21 @@
   </si>
   <si>
     <t>Eugeni Valderrama</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Jota Peleteiro</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Rodrigo Sanchez</t>
+  </si>
+  <si>
+    <t>Javi Martínez Calvo</t>
   </si>
 </sst>
 </file>
@@ -2707,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="B423" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18905,7 +18914,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>253</v>
+        <v>604</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>38</v>
@@ -22525,7 +22534,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>293</v>
+        <v>606</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>38</v>
@@ -27323,7 +27332,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>344</v>
+        <v>605</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>38</v>
@@ -42545,7 +42554,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>511</v>
+        <v>607</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>38</v>
@@ -42643,7 +42652,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>31</v>
@@ -42741,7 +42750,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>38</v>
@@ -42839,7 +42848,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>79</v>
@@ -42937,7 +42946,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>120</v>
@@ -43035,10 +43044,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C413" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>517</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>62</v>
@@ -43133,7 +43142,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>38</v>
@@ -43329,7 +43338,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>38</v>
@@ -43427,7 +43436,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>362</v>
@@ -43525,7 +43534,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>71</v>
@@ -43623,7 +43632,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>71</v>
@@ -43721,7 +43730,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>38</v>
@@ -43819,7 +43828,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>76</v>
@@ -43917,7 +43926,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>492</v>
@@ -44015,7 +44024,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>526</v>
+        <v>608</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>38</v>
@@ -44113,7 +44122,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>362</v>
@@ -44211,7 +44220,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>38</v>
@@ -44309,7 +44318,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>38</v>
@@ -44405,7 +44414,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>38</v>
@@ -44503,10 +44512,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>32</v>
@@ -44599,7 +44608,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>38</v>
@@ -44697,7 +44706,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>38</v>
@@ -44893,7 +44902,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>38</v>
@@ -44991,7 +45000,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>38</v>
@@ -45089,7 +45098,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>38</v>
@@ -45187,7 +45196,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>38</v>
@@ -45285,7 +45294,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>38</v>
@@ -45383,7 +45392,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>38</v>
@@ -45481,7 +45490,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>38</v>
@@ -45579,7 +45588,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>57</v>
@@ -45677,7 +45686,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>466</v>
@@ -45775,7 +45784,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>38</v>
@@ -45873,7 +45882,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>38</v>
@@ -45971,7 +45980,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>71</v>
@@ -46067,7 +46076,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>38</v>
@@ -46163,7 +46172,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>38</v>
@@ -46259,7 +46268,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>71</v>
@@ -46357,7 +46366,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>38</v>
@@ -46455,7 +46464,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>103</v>
@@ -46553,7 +46562,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>38</v>
@@ -46649,7 +46658,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>74</v>
@@ -46747,7 +46756,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>38</v>
@@ -46845,7 +46854,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>38</v>
@@ -46943,7 +46952,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>71</v>
@@ -47139,7 +47148,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>38</v>
@@ -47237,7 +47246,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>38</v>
@@ -47333,7 +47342,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>38</v>
@@ -47431,7 +47440,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>38</v>
@@ -47529,7 +47538,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>38</v>
@@ -47627,7 +47636,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>38</v>
@@ -47725,7 +47734,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>38</v>
@@ -47823,7 +47832,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>38</v>
@@ -47919,7 +47928,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>38</v>
@@ -48017,7 +48026,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>74</v>
@@ -48115,7 +48124,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>38</v>
@@ -48213,7 +48222,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>38</v>
@@ -48309,7 +48318,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>38</v>
@@ -48407,7 +48416,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>38</v>
@@ -48457,7 +48466,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>38</v>
@@ -48555,10 +48564,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>124</v>
@@ -48653,7 +48662,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>38</v>
@@ -48751,7 +48760,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>38</v>
@@ -48849,7 +48858,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>38</v>
@@ -48945,7 +48954,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>192</v>
@@ -49043,7 +49052,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>71</v>
@@ -49141,10 +49150,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>72</v>
@@ -49239,7 +49248,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>79</v>
@@ -49337,7 +49346,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>366</v>
@@ -49435,7 +49444,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>38</v>
@@ -49533,13 +49542,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>51</v>
@@ -49629,7 +49638,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>38</v>
@@ -49725,7 +49734,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>103</v>
@@ -49823,7 +49832,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>38</v>
@@ -49919,7 +49928,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>103</v>
@@ -50015,7 +50024,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>71</v>
@@ -50111,7 +50120,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>38</v>
@@ -50209,7 +50218,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>38</v>
@@ -50305,7 +50314,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>38</v>
@@ -50403,7 +50412,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>71</v>
@@ -50501,7 +50510,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>57</v>
@@ -50599,7 +50608,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>38</v>
@@ -50697,7 +50706,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>38</v>
@@ -50795,7 +50804,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>38</v>
@@ -50893,10 +50902,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>47</v>
@@ -50991,7 +51000,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>351</v>
@@ -51089,7 +51098,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>38</v>
@@ -51185,7 +51194,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>38</v>
@@ -51283,7 +51292,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>38</v>
@@ -51381,7 +51390,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>38</v>
@@ -51479,7 +51488,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>38</v>

--- a/data/league_data/spain/21/spain_possession.xlsx
+++ b/data/league_data/spain/21/spain_possession.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018E3D80-69B4-E34F-B8C1-0E65625A761D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6368007B-9C40-4741-B156-0658BB5D1417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,9 +967,6 @@
     <t>João Félix</t>
   </si>
   <si>
-    <t>Sergio Álvarez</t>
-  </si>
-  <si>
     <t>Martin Agirregabiria</t>
   </si>
   <si>
@@ -1847,6 +1844,9 @@
   </si>
   <si>
     <t>Javi Martínez Calvo</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
   </si>
 </sst>
 </file>
@@ -2716,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="B423" sqref="B423"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18914,7 +18914,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>38</v>
@@ -22534,7 +22534,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>38</v>
@@ -24588,7 +24588,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>315</v>
+        <v>608</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>38</v>
@@ -24686,7 +24686,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>38</v>
@@ -24784,7 +24784,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>38</v>
@@ -24882,7 +24882,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>71</v>
@@ -24980,7 +24980,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>38</v>
@@ -25078,7 +25078,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>38</v>
@@ -25176,7 +25176,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>38</v>
@@ -25274,7 +25274,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>38</v>
@@ -25372,7 +25372,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>269</v>
@@ -25470,10 +25470,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>72</v>
@@ -25568,7 +25568,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>38</v>
@@ -25666,7 +25666,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>79</v>
@@ -25764,7 +25764,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>38</v>
@@ -25862,7 +25862,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>74</v>
@@ -25960,7 +25960,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>129</v>
@@ -26058,7 +26058,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>76</v>
@@ -26156,7 +26156,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>38</v>
@@ -26254,7 +26254,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>38</v>
@@ -26352,7 +26352,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>38</v>
@@ -26450,7 +26450,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>38</v>
@@ -26548,7 +26548,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>38</v>
@@ -26646,7 +26646,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>38</v>
@@ -26744,7 +26744,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>38</v>
@@ -26842,7 +26842,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>38</v>
@@ -26940,7 +26940,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>38</v>
@@ -27038,7 +27038,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>38</v>
@@ -27136,7 +27136,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>38</v>
@@ -27234,7 +27234,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>38</v>
@@ -27332,7 +27332,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>38</v>
@@ -27430,7 +27430,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>38</v>
@@ -27528,7 +27528,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>38</v>
@@ -27626,7 +27626,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>38</v>
@@ -27724,7 +27724,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>86</v>
@@ -27822,7 +27822,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>38</v>
@@ -27920,10 +27920,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>124</v>
@@ -28018,7 +28018,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>74</v>
@@ -28116,7 +28116,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>38</v>
@@ -28214,7 +28214,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>38</v>
@@ -28312,7 +28312,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>38</v>
@@ -28410,7 +28410,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>38</v>
@@ -28508,7 +28508,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>79</v>
@@ -28606,7 +28606,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>199</v>
@@ -28704,7 +28704,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>79</v>
@@ -28802,7 +28802,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>176</v>
@@ -28900,10 +28900,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C268" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>62</v>
@@ -28998,7 +28998,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>38</v>
@@ -29096,7 +29096,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>38</v>
@@ -29194,10 +29194,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C271" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>50</v>
@@ -29292,7 +29292,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>38</v>
@@ -29390,7 +29390,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>38</v>
@@ -29488,7 +29488,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>38</v>
@@ -29586,7 +29586,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>38</v>
@@ -29684,7 +29684,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>38</v>
@@ -29782,7 +29782,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>38</v>
@@ -29880,7 +29880,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>53</v>
@@ -29978,10 +29978,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C279" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>72</v>
@@ -30174,7 +30174,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>38</v>
@@ -30272,7 +30272,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>38</v>
@@ -30370,7 +30370,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>71</v>
@@ -30468,7 +30468,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>103</v>
@@ -30566,10 +30566,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C285" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>50</v>
@@ -30664,7 +30664,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>38</v>
@@ -30762,7 +30762,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>129</v>
@@ -30860,7 +30860,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>38</v>
@@ -30958,7 +30958,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>74</v>
@@ -31056,7 +31056,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>38</v>
@@ -31154,7 +31154,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>38</v>
@@ -31252,7 +31252,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>83</v>
@@ -31350,7 +31350,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>76</v>
@@ -31448,10 +31448,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>50</v>
@@ -31546,7 +31546,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>71</v>
@@ -31644,7 +31644,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>38</v>
@@ -31740,7 +31740,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>38</v>
@@ -31838,7 +31838,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>71</v>
@@ -31936,7 +31936,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>38</v>
@@ -32034,7 +32034,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>76</v>
@@ -32132,7 +32132,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>103</v>
@@ -32230,7 +32230,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>38</v>
@@ -32328,7 +32328,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>76</v>
@@ -32426,7 +32426,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>281</v>
@@ -32524,7 +32524,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>281</v>
@@ -32622,7 +32622,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>57</v>
@@ -32720,7 +32720,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>38</v>
@@ -32818,7 +32818,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>38</v>
@@ -32916,7 +32916,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>38</v>
@@ -33014,7 +33014,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>71</v>
@@ -33112,7 +33112,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>38</v>
@@ -33210,10 +33210,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>47</v>
@@ -33308,7 +33308,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>103</v>
@@ -33406,7 +33406,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>74</v>
@@ -33504,7 +33504,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>38</v>
@@ -33602,7 +33602,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>76</v>
@@ -33700,7 +33700,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>57</v>
@@ -33798,7 +33798,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>38</v>
@@ -33896,7 +33896,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>31</v>
@@ -33994,7 +33994,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>71</v>
@@ -34092,7 +34092,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>38</v>
@@ -34190,7 +34190,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>76</v>
@@ -34288,7 +34288,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>38</v>
@@ -34386,7 +34386,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>38</v>
@@ -34484,7 +34484,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>38</v>
@@ -34582,7 +34582,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>38</v>
@@ -34680,7 +34680,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>38</v>
@@ -34778,7 +34778,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>38</v>
@@ -34876,7 +34876,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>38</v>
@@ -34974,10 +34974,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C330" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="C330" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>62</v>
@@ -35072,7 +35072,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>38</v>
@@ -35170,7 +35170,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>71</v>
@@ -35268,7 +35268,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>38</v>
@@ -35366,7 +35366,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>38</v>
@@ -35464,7 +35464,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>38</v>
@@ -35560,7 +35560,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>57</v>
@@ -35658,7 +35658,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>38</v>
@@ -35756,7 +35756,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>38</v>
@@ -35854,7 +35854,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>86</v>
@@ -35952,7 +35952,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>53</v>
@@ -36048,7 +36048,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>38</v>
@@ -36144,7 +36144,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>38</v>
@@ -36242,7 +36242,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>76</v>
@@ -36340,7 +36340,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>38</v>
@@ -36438,7 +36438,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>250</v>
@@ -36536,7 +36536,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>176</v>
@@ -36634,7 +36634,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>57</v>
@@ -36732,7 +36732,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>38</v>
@@ -36830,7 +36830,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>86</v>
@@ -36928,7 +36928,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>38</v>
@@ -37026,7 +37026,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>38</v>
@@ -37124,7 +37124,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>38</v>
@@ -37222,7 +37222,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>38</v>
@@ -37320,7 +37320,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>38</v>
@@ -37418,7 +37418,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>38</v>
@@ -37516,7 +37516,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>38</v>
@@ -37614,7 +37614,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>38</v>
@@ -37712,7 +37712,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>91</v>
@@ -37810,7 +37810,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>38</v>
@@ -37908,7 +37908,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>281</v>
@@ -38006,7 +38006,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>38</v>
@@ -38104,7 +38104,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>38</v>
@@ -38202,10 +38202,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C363" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="C363" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>47</v>
@@ -38300,7 +38300,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>129</v>
@@ -38398,10 +38398,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C365" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>466</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>47</v>
@@ -38496,7 +38496,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>38</v>
@@ -38594,7 +38594,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>38</v>
@@ -38692,7 +38692,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>38</v>
@@ -38790,7 +38790,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>129</v>
@@ -38888,7 +38888,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>74</v>
@@ -38986,7 +38986,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>71</v>
@@ -39084,7 +39084,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>38</v>
@@ -39182,7 +39182,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>71</v>
@@ -39280,7 +39280,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>38</v>
@@ -39378,7 +39378,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>38</v>
@@ -39476,7 +39476,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>38</v>
@@ -39572,7 +39572,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>71</v>
@@ -39668,7 +39668,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>38</v>
@@ -39764,7 +39764,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>103</v>
@@ -39862,7 +39862,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>76</v>
@@ -39960,7 +39960,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>76</v>
@@ -40058,7 +40058,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>176</v>
@@ -40156,7 +40156,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>103</v>
@@ -40206,7 +40206,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>76</v>
@@ -40304,7 +40304,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>53</v>
@@ -40402,7 +40402,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>38</v>
@@ -40500,7 +40500,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>38</v>
@@ -40598,7 +40598,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>74</v>
@@ -40696,7 +40696,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>38</v>
@@ -40794,7 +40794,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>76</v>
@@ -40890,10 +40890,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C391" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>47</v>
@@ -40988,7 +40988,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>74</v>
@@ -41086,10 +41086,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C393" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>124</v>
@@ -41184,10 +41184,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C394" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="C394" s="4" t="s">
-        <v>497</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>50</v>
@@ -41282,7 +41282,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>38</v>
@@ -41380,7 +41380,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>38</v>
@@ -41478,7 +41478,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>79</v>
@@ -41574,7 +41574,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>38</v>
@@ -41672,7 +41672,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>38</v>
@@ -41770,7 +41770,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>38</v>
@@ -41868,7 +41868,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>38</v>
@@ -41966,7 +41966,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>38</v>
@@ -42064,7 +42064,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>38</v>
@@ -42162,7 +42162,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>38</v>
@@ -42260,7 +42260,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>38</v>
@@ -42358,7 +42358,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>38</v>
@@ -42456,7 +42456,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>79</v>
@@ -42554,7 +42554,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>38</v>
@@ -42652,7 +42652,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>31</v>
@@ -42750,7 +42750,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>38</v>
@@ -42848,7 +42848,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>79</v>
@@ -42946,7 +42946,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>120</v>
@@ -43044,10 +43044,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C413" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>516</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>62</v>
@@ -43142,7 +43142,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>38</v>
@@ -43338,7 +43338,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>38</v>
@@ -43436,10 +43436,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>72</v>
@@ -43534,7 +43534,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>71</v>
@@ -43632,7 +43632,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>71</v>
@@ -43730,7 +43730,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>38</v>
@@ -43828,7 +43828,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>76</v>
@@ -43926,10 +43926,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>72</v>
@@ -44024,7 +44024,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>38</v>
@@ -44122,10 +44122,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>47</v>
@@ -44220,7 +44220,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>38</v>
@@ -44318,7 +44318,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>38</v>
@@ -44414,7 +44414,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>38</v>
@@ -44512,10 +44512,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C428" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="C428" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>32</v>
@@ -44608,7 +44608,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>38</v>
@@ -44706,7 +44706,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>38</v>
@@ -44804,10 +44804,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C431" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="C431" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>47</v>
@@ -44902,7 +44902,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>38</v>
@@ -45000,7 +45000,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>38</v>
@@ -45098,7 +45098,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>38</v>
@@ -45196,7 +45196,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>38</v>
@@ -45294,7 +45294,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>38</v>
@@ -45392,7 +45392,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>38</v>
@@ -45490,7 +45490,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>38</v>
@@ -45588,7 +45588,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>57</v>
@@ -45686,10 +45686,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>47</v>
@@ -45784,7 +45784,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>38</v>
@@ -45882,7 +45882,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>38</v>
@@ -45980,7 +45980,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>71</v>
@@ -46076,7 +46076,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>38</v>
@@ -46172,7 +46172,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>38</v>
@@ -46268,7 +46268,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>71</v>
@@ -46366,7 +46366,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>38</v>
@@ -46464,7 +46464,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>103</v>
@@ -46562,7 +46562,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>38</v>
@@ -46658,7 +46658,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>74</v>
@@ -46756,7 +46756,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>38</v>
@@ -46854,7 +46854,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>38</v>
@@ -46952,7 +46952,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>71</v>
@@ -47050,7 +47050,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>281</v>
@@ -47148,7 +47148,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>38</v>
@@ -47246,7 +47246,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>38</v>
@@ -47342,7 +47342,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>38</v>
@@ -47440,7 +47440,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>38</v>
@@ -47538,7 +47538,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>38</v>
@@ -47636,7 +47636,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>38</v>
@@ -47734,7 +47734,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>38</v>
@@ -47832,7 +47832,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>38</v>
@@ -47928,7 +47928,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>38</v>
@@ -48026,7 +48026,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>74</v>
@@ -48124,7 +48124,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>38</v>
@@ -48222,7 +48222,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>38</v>
@@ -48318,7 +48318,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>38</v>
@@ -48416,7 +48416,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>38</v>
@@ -48466,7 +48466,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>38</v>
@@ -48564,10 +48564,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C470" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="C470" s="4" t="s">
-        <v>571</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>124</v>
@@ -48662,7 +48662,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>38</v>
@@ -48760,7 +48760,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>38</v>
@@ -48858,7 +48858,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>38</v>
@@ -48954,7 +48954,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>192</v>
@@ -49052,7 +49052,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>71</v>
@@ -49150,10 +49150,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C476" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="C476" s="4" t="s">
-        <v>578</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>72</v>
@@ -49248,7 +49248,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>79</v>
@@ -49346,10 +49346,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>47</v>
@@ -49444,7 +49444,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>38</v>
@@ -49542,13 +49542,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>51</v>
@@ -49638,7 +49638,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>38</v>
@@ -49734,7 +49734,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>103</v>
@@ -49832,7 +49832,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>38</v>
@@ -49928,7 +49928,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>103</v>
@@ -50024,7 +50024,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>71</v>
@@ -50120,7 +50120,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>38</v>
@@ -50218,7 +50218,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>38</v>
@@ -50314,7 +50314,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>38</v>
@@ -50412,7 +50412,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>71</v>
@@ -50510,7 +50510,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>57</v>
@@ -50608,7 +50608,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>38</v>
@@ -50706,7 +50706,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>38</v>
@@ -50804,7 +50804,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>38</v>
@@ -50902,10 +50902,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C494" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="C494" s="4" t="s">
-        <v>597</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>47</v>
@@ -51000,10 +51000,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D495" s="4" t="s">
         <v>124</v>
@@ -51098,7 +51098,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>38</v>
@@ -51194,7 +51194,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>38</v>
@@ -51292,7 +51292,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>38</v>
@@ -51390,7 +51390,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>38</v>
@@ -51488,7 +51488,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>38</v>

--- a/data/league_data/spain/21/spain_possession.xlsx
+++ b/data/league_data/spain/21/spain_possession.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6368007B-9C40-4741-B156-0658BB5D1417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C64F888-A1C8-8043-BC8F-172B4BA49644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -247,9 +247,6 @@
     <t>fr FRA</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>br BRA</t>
   </si>
   <si>
@@ -1847,6 +1844,9 @@
   </si>
   <si>
     <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2716,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4812,16 +4812,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" s="4">
         <v>21</v>
@@ -4910,10 +4910,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>47</v>
@@ -5008,7 +5008,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>74</v>
@@ -5017,7 +5017,7 @@
         <v>50</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="4">
         <v>21</v>
@@ -5106,16 +5106,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="4">
         <v>31</v>
@@ -5204,16 +5204,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="4">
         <v>29</v>
@@ -5302,7 +5302,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>38</v>
@@ -5400,7 +5400,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>38</v>
@@ -5498,7 +5498,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>38</v>
@@ -5596,10 +5596,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>50</v>
@@ -5694,10 +5694,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>50</v>
@@ -5792,7 +5792,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>38</v>
@@ -5801,7 +5801,7 @@
         <v>50</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" s="4">
         <v>31</v>
@@ -5890,7 +5890,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>74</v>
@@ -5988,10 +5988,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>47</v>
@@ -6086,7 +6086,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>38</v>
@@ -6184,7 +6184,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>71</v>
@@ -6193,7 +6193,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36" s="4">
         <v>27</v>
@@ -6282,7 +6282,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -6380,16 +6380,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38" s="4">
         <v>26</v>
@@ -6478,7 +6478,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>38</v>
@@ -6487,7 +6487,7 @@
         <v>62</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F39" s="4">
         <v>32</v>
@@ -6576,7 +6576,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>38</v>
@@ -6585,7 +6585,7 @@
         <v>47</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F40" s="4">
         <v>23</v>
@@ -6674,7 +6674,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>71</v>
@@ -6683,7 +6683,7 @@
         <v>47</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F41" s="4">
         <v>26</v>
@@ -6772,7 +6772,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>38</v>
@@ -6781,7 +6781,7 @@
         <v>47</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F42" s="4">
         <v>26</v>
@@ -6870,7 +6870,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>38</v>
@@ -6879,7 +6879,7 @@
         <v>50</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F43" s="4">
         <v>25</v>
@@ -6968,7 +6968,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>38</v>
@@ -6977,7 +6977,7 @@
         <v>50</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F44" s="4">
         <v>34</v>
@@ -7066,7 +7066,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>38</v>
@@ -7164,16 +7164,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F46" s="4">
         <v>27</v>
@@ -7262,10 +7262,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>32</v>
@@ -7360,7 +7360,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>38</v>
@@ -7369,7 +7369,7 @@
         <v>50</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F48" s="4">
         <v>28</v>
@@ -7458,7 +7458,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>74</v>
@@ -7556,10 +7556,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>47</v>
@@ -7654,7 +7654,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>38</v>
@@ -7663,7 +7663,7 @@
         <v>47</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F51" s="4">
         <v>23</v>
@@ -7752,7 +7752,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>57</v>
@@ -7850,13 +7850,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>51</v>
@@ -7948,16 +7948,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F54" s="4">
         <v>29</v>
@@ -8046,7 +8046,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>74</v>
@@ -8144,7 +8144,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>38</v>
@@ -8153,7 +8153,7 @@
         <v>32</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F56" s="4">
         <v>28</v>
@@ -8240,16 +8240,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F57" s="4">
         <v>28</v>
@@ -8338,16 +8338,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F58" s="4">
         <v>25</v>
@@ -8436,7 +8436,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>71</v>
@@ -8445,7 +8445,7 @@
         <v>62</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F59" s="4">
         <v>24</v>
@@ -8534,16 +8534,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F60" s="4">
         <v>23</v>
@@ -8632,16 +8632,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F61" s="4">
         <v>23</v>
@@ -8730,7 +8730,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>38</v>
@@ -8828,7 +8828,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>74</v>
@@ -8837,7 +8837,7 @@
         <v>50</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F63" s="4">
         <v>27</v>
@@ -8926,7 +8926,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>38</v>
@@ -9024,7 +9024,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>71</v>
@@ -9033,7 +9033,7 @@
         <v>47</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F65" s="4">
         <v>30</v>
@@ -9122,16 +9122,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F66" s="4">
         <v>26</v>
@@ -9220,10 +9220,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>50</v>
@@ -9318,7 +9318,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>38</v>
@@ -9327,7 +9327,7 @@
         <v>50</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F68" s="4">
         <v>33</v>
@@ -9416,7 +9416,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>38</v>
@@ -9512,7 +9512,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>71</v>
@@ -9521,7 +9521,7 @@
         <v>62</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F70" s="4">
         <v>26</v>
@@ -9610,16 +9610,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F71" s="4">
         <v>27</v>
@@ -9708,16 +9708,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F72" s="4">
         <v>27</v>
@@ -9806,7 +9806,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>38</v>
@@ -9815,7 +9815,7 @@
         <v>32</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F73" s="4">
         <v>29</v>
@@ -9902,10 +9902,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>50</v>
@@ -10000,16 +10000,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F75" s="4">
         <v>28</v>
@@ -10098,7 +10098,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>74</v>
@@ -10196,7 +10196,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>38</v>
@@ -10205,7 +10205,7 @@
         <v>50</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F77" s="4">
         <v>29</v>
@@ -10294,16 +10294,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F78" s="4">
         <v>33</v>
@@ -10392,7 +10392,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>38</v>
@@ -10401,7 +10401,7 @@
         <v>50</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F79" s="4">
         <v>27</v>
@@ -10490,7 +10490,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>38</v>
@@ -10588,7 +10588,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>38</v>
@@ -10686,13 +10686,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>45</v>
@@ -10784,7 +10784,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>38</v>
@@ -10882,16 +10882,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F84" s="4">
         <v>33</v>
@@ -10980,13 +10980,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>64</v>
@@ -11078,7 +11078,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>38</v>
@@ -11176,7 +11176,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>38</v>
@@ -11274,7 +11274,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>38</v>
@@ -11283,7 +11283,7 @@
         <v>32</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F88" s="4">
         <v>29</v>
@@ -11372,7 +11372,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>38</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F90" s="4">
         <v>29</v>
@@ -11568,7 +11568,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>38</v>
@@ -11664,10 +11664,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>62</v>
@@ -11762,16 +11762,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F93" s="4">
         <v>29</v>
@@ -11860,7 +11860,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>71</v>
@@ -11958,7 +11958,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>74</v>
@@ -12056,10 +12056,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>50</v>
@@ -12154,7 +12154,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>38</v>
@@ -12252,7 +12252,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>38</v>
@@ -12261,7 +12261,7 @@
         <v>72</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F98" s="4">
         <v>33</v>
@@ -12350,16 +12350,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F99" s="4">
         <v>28</v>
@@ -12448,10 +12448,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>50</v>
@@ -12546,7 +12546,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>38</v>
@@ -12555,7 +12555,7 @@
         <v>62</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F101" s="4">
         <v>24</v>
@@ -12644,7 +12644,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>38</v>
@@ -12742,7 +12742,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>38</v>
@@ -12840,7 +12840,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>38</v>
@@ -12849,7 +12849,7 @@
         <v>47</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F104" s="4">
         <v>26</v>
@@ -12938,7 +12938,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>71</v>
@@ -13036,7 +13036,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>38</v>
@@ -13045,7 +13045,7 @@
         <v>54</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F106" s="4">
         <v>30</v>
@@ -13134,16 +13134,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F107" s="4">
         <v>28</v>
@@ -13232,7 +13232,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>38</v>
@@ -13330,7 +13330,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>38</v>
@@ -13428,7 +13428,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>38</v>
@@ -13526,16 +13526,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F111" s="4">
         <v>25</v>
@@ -13624,7 +13624,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>38</v>
@@ -13722,10 +13722,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>62</v>
@@ -13820,16 +13820,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F114" s="4">
         <v>24</v>
@@ -13918,7 +13918,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>71</v>
@@ -13927,7 +13927,7 @@
         <v>50</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F115" s="4">
         <v>28</v>
@@ -14016,10 +14016,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>47</v>
@@ -14114,10 +14114,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>54</v>
@@ -14212,16 +14212,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F118" s="4">
         <v>23</v>
@@ -14310,16 +14310,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F119" s="4">
         <v>22</v>
@@ -14408,16 +14408,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F120" s="4">
         <v>26</v>
@@ -14506,16 +14506,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F121" s="4">
         <v>23</v>
@@ -14604,13 +14604,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>43</v>
@@ -14702,13 +14702,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>58</v>
@@ -14800,7 +14800,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>38</v>
@@ -14809,7 +14809,7 @@
         <v>50</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F124" s="4">
         <v>30</v>
@@ -14898,7 +14898,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>38</v>
@@ -14907,7 +14907,7 @@
         <v>50</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F125" s="4">
         <v>30</v>
@@ -14996,7 +14996,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>38</v>
@@ -15005,7 +15005,7 @@
         <v>32</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F126" s="4">
         <v>31</v>
@@ -15092,7 +15092,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>38</v>
@@ -15101,7 +15101,7 @@
         <v>50</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F127" s="4">
         <v>33</v>
@@ -15190,16 +15190,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F128" s="4">
         <v>32</v>
@@ -15288,7 +15288,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>38</v>
@@ -15297,7 +15297,7 @@
         <v>62</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F129" s="4">
         <v>26</v>
@@ -15386,7 +15386,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>74</v>
@@ -15484,7 +15484,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>38</v>
@@ -15493,7 +15493,7 @@
         <v>62</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F131" s="4">
         <v>29</v>
@@ -15582,7 +15582,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>38</v>
@@ -15591,7 +15591,7 @@
         <v>62</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F132" s="4">
         <v>34</v>
@@ -15680,16 +15680,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F133" s="4">
         <v>23</v>
@@ -15778,7 +15778,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>38</v>
@@ -15876,13 +15876,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>58</v>
@@ -15974,7 +15974,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>57</v>
@@ -15983,7 +15983,7 @@
         <v>47</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F136" s="4">
         <v>22</v>
@@ -16072,7 +16072,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>38</v>
@@ -16170,13 +16170,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>36</v>
@@ -16268,7 +16268,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>38</v>
@@ -16277,7 +16277,7 @@
         <v>47</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F139" s="4">
         <v>29</v>
@@ -16366,7 +16366,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>38</v>
@@ -16375,7 +16375,7 @@
         <v>72</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F140" s="4">
         <v>28</v>
@@ -16464,7 +16464,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>38</v>
@@ -16473,7 +16473,7 @@
         <v>50</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F141" s="4">
         <v>31</v>
@@ -16562,7 +16562,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>38</v>
@@ -16660,16 +16660,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="D143" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F143" s="4">
         <v>34</v>
@@ -16758,7 +16758,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>38</v>
@@ -16856,16 +16856,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F145" s="4">
         <v>21</v>
@@ -16954,16 +16954,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F146" s="4">
         <v>24</v>
@@ -17052,10 +17052,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>47</v>
@@ -17150,7 +17150,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>38</v>
@@ -17248,7 +17248,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>38</v>
@@ -17346,13 +17346,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>41</v>
@@ -17444,7 +17444,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>38</v>
@@ -17542,7 +17542,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>38</v>
@@ -17640,7 +17640,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>74</v>
@@ -17649,7 +17649,7 @@
         <v>50</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F153" s="4">
         <v>23</v>
@@ -17738,7 +17738,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>38</v>
@@ -17836,7 +17836,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>38</v>
@@ -17934,7 +17934,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>38</v>
@@ -17943,7 +17943,7 @@
         <v>50</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F156" s="4">
         <v>24</v>
@@ -18032,16 +18032,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F157" s="4">
         <v>31</v>
@@ -18130,10 +18130,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>50</v>
@@ -18228,7 +18228,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>38</v>
@@ -18326,7 +18326,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>38</v>
@@ -18424,7 +18424,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>38</v>
@@ -18522,7 +18522,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>38</v>
@@ -18620,10 +18620,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>50</v>
@@ -18718,16 +18718,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F164" s="4">
         <v>27</v>
@@ -18816,16 +18816,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F165" s="4">
         <v>23</v>
@@ -18914,7 +18914,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>38</v>
@@ -19012,7 +19012,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>38</v>
@@ -19021,7 +19021,7 @@
         <v>50</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F167" s="4">
         <v>20</v>
@@ -19110,7 +19110,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>38</v>
@@ -19206,7 +19206,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>38</v>
@@ -19215,7 +19215,7 @@
         <v>72</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F169" s="4">
         <v>27</v>
@@ -19304,10 +19304,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>62</v>
@@ -19402,7 +19402,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>38</v>
@@ -19500,7 +19500,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>38</v>
@@ -19509,7 +19509,7 @@
         <v>50</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F172" s="4">
         <v>24</v>
@@ -19598,7 +19598,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>38</v>
@@ -19696,7 +19696,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>38</v>
@@ -19794,7 +19794,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>38</v>
@@ -19892,7 +19892,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>38</v>
@@ -19901,7 +19901,7 @@
         <v>47</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F176" s="4">
         <v>27</v>
@@ -19990,13 +19990,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>43</v>
@@ -20088,16 +20088,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F178" s="4">
         <v>29</v>
@@ -20186,7 +20186,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>38</v>
@@ -20195,7 +20195,7 @@
         <v>54</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F179" s="4">
         <v>30</v>
@@ -20284,7 +20284,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>38</v>
@@ -20382,10 +20382,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>50</v>
@@ -20480,7 +20480,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>38</v>
@@ -20578,13 +20578,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>51</v>
@@ -20676,7 +20676,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>38</v>
@@ -20774,7 +20774,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>38</v>
@@ -20872,7 +20872,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>38</v>
@@ -20970,7 +20970,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>38</v>
@@ -21068,16 +21068,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F188" s="4">
         <v>26</v>
@@ -21166,13 +21166,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>33</v>
@@ -21264,7 +21264,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>71</v>
@@ -21273,7 +21273,7 @@
         <v>50</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F190" s="4">
         <v>29</v>
@@ -21360,13 +21360,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="D191" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>58</v>
@@ -21458,7 +21458,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>38</v>
@@ -21467,7 +21467,7 @@
         <v>50</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F192" s="4">
         <v>31</v>
@@ -21556,16 +21556,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F193" s="4">
         <v>37</v>
@@ -21654,7 +21654,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>38</v>
@@ -21663,7 +21663,7 @@
         <v>50</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F194" s="4">
         <v>24</v>
@@ -21752,7 +21752,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>38</v>
@@ -21761,7 +21761,7 @@
         <v>62</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F195" s="4">
         <v>29</v>
@@ -21850,7 +21850,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>38</v>
@@ -21859,7 +21859,7 @@
         <v>50</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F196" s="4">
         <v>26</v>
@@ -21948,7 +21948,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>38</v>
@@ -21957,7 +21957,7 @@
         <v>50</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F197" s="4">
         <v>27</v>
@@ -22046,7 +22046,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>38</v>
@@ -22055,7 +22055,7 @@
         <v>32</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F198" s="4">
         <v>23</v>
@@ -22142,13 +22142,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>55</v>
@@ -22240,10 +22240,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>50</v>
@@ -22338,7 +22338,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>38</v>
@@ -22347,7 +22347,7 @@
         <v>47</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F201" s="4">
         <v>31</v>
@@ -22436,7 +22436,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>38</v>
@@ -22534,7 +22534,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>38</v>
@@ -22632,7 +22632,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>38</v>
@@ -22641,7 +22641,7 @@
         <v>50</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F204" s="4">
         <v>31</v>
@@ -22730,7 +22730,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>38</v>
@@ -22828,7 +22828,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>38</v>
@@ -22926,7 +22926,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>38</v>
@@ -23024,7 +23024,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>38</v>
@@ -23033,7 +23033,7 @@
         <v>50</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F208" s="4">
         <v>29</v>
@@ -23122,16 +23122,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C209" s="4" t="s">
-        <v>300</v>
-      </c>
       <c r="D209" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F209" s="4">
         <v>25</v>
@@ -23220,7 +23220,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>38</v>
@@ -23318,7 +23318,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>38</v>
@@ -23327,7 +23327,7 @@
         <v>62</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F211" s="4">
         <v>22</v>
@@ -23416,16 +23416,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F212" s="4">
         <v>22</v>
@@ -23514,7 +23514,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>38</v>
@@ -23523,7 +23523,7 @@
         <v>50</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F213" s="4">
         <v>20</v>
@@ -23612,7 +23612,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>38</v>
@@ -23621,7 +23621,7 @@
         <v>32</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F214" s="4">
         <v>25</v>
@@ -23708,10 +23708,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>62</v>
@@ -23806,7 +23806,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>38</v>
@@ -23815,7 +23815,7 @@
         <v>50</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F216" s="4">
         <v>31</v>
@@ -23904,7 +23904,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>38</v>
@@ -23913,7 +23913,7 @@
         <v>32</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F217" s="4">
         <v>30</v>
@@ -24000,7 +24000,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>38</v>
@@ -24009,7 +24009,7 @@
         <v>72</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F218" s="4">
         <v>38</v>
@@ -24098,16 +24098,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F219" s="4">
         <v>26</v>
@@ -24196,7 +24196,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>38</v>
@@ -24205,7 +24205,7 @@
         <v>72</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F220" s="4">
         <v>24</v>
@@ -24294,7 +24294,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>38</v>
@@ -24392,7 +24392,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>38</v>
@@ -24490,10 +24490,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>72</v>
@@ -24588,7 +24588,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>38</v>
@@ -24686,13 +24686,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>41</v>
@@ -24784,7 +24784,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>38</v>
@@ -24882,7 +24882,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>71</v>
@@ -24980,7 +24980,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>38</v>
@@ -24989,7 +24989,7 @@
         <v>47</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F228" s="4">
         <v>29</v>
@@ -25078,7 +25078,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>38</v>
@@ -25176,7 +25176,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>38</v>
@@ -25185,7 +25185,7 @@
         <v>50</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F230" s="4">
         <v>23</v>
@@ -25274,7 +25274,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>38</v>
@@ -25372,16 +25372,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F232" s="4">
         <v>17</v>
@@ -25470,16 +25470,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F233" s="4">
         <v>27</v>
@@ -25568,13 +25568,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>43</v>
@@ -25666,10 +25666,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>50</v>
@@ -25764,7 +25764,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>38</v>
@@ -25862,7 +25862,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>74</v>
@@ -25871,7 +25871,7 @@
         <v>47</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F237" s="4">
         <v>31</v>
@@ -25960,10 +25960,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>72</v>
@@ -26058,16 +26058,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F239" s="4">
         <v>24</v>
@@ -26156,7 +26156,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>38</v>
@@ -26165,7 +26165,7 @@
         <v>47</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F240" s="4">
         <v>23</v>
@@ -26254,7 +26254,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>38</v>
@@ -26263,7 +26263,7 @@
         <v>47</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F241" s="4">
         <v>32</v>
@@ -26352,7 +26352,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>38</v>
@@ -26450,7 +26450,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>38</v>
@@ -26459,7 +26459,7 @@
         <v>62</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F243" s="4">
         <v>35</v>
@@ -26548,13 +26548,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>51</v>
@@ -26646,7 +26646,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>38</v>
@@ -26744,16 +26744,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F246" s="4">
         <v>25</v>
@@ -26842,7 +26842,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>38</v>
@@ -26851,7 +26851,7 @@
         <v>62</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F247" s="4">
         <v>27</v>
@@ -26940,7 +26940,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>38</v>
@@ -27038,7 +27038,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>38</v>
@@ -27047,7 +27047,7 @@
         <v>47</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F249" s="4">
         <v>29</v>
@@ -27136,16 +27136,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F250" s="4">
         <v>25</v>
@@ -27234,7 +27234,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>38</v>
@@ -27243,7 +27243,7 @@
         <v>47</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F251" s="4">
         <v>21</v>
@@ -27332,7 +27332,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>38</v>
@@ -27430,7 +27430,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>38</v>
@@ -27528,7 +27528,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>38</v>
@@ -27626,7 +27626,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>38</v>
@@ -27724,16 +27724,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F256" s="4">
         <v>28</v>
@@ -27822,13 +27822,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>48</v>
@@ -27920,13 +27920,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C258" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="D258" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>45</v>
@@ -28018,13 +28018,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>36</v>
@@ -28116,7 +28116,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>38</v>
@@ -28125,7 +28125,7 @@
         <v>47</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F260" s="4">
         <v>32</v>
@@ -28214,13 +28214,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>43</v>
@@ -28312,7 +28312,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>38</v>
@@ -28410,7 +28410,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>38</v>
@@ -28419,7 +28419,7 @@
         <v>50</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F263" s="4">
         <v>23</v>
@@ -28508,10 +28508,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>47</v>
@@ -28606,16 +28606,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F265" s="4">
         <v>22</v>
@@ -28704,10 +28704,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>50</v>
@@ -28802,16 +28802,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F267" s="4">
         <v>33</v>
@@ -28900,10 +28900,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C268" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>62</v>
@@ -28998,13 +28998,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E269" s="4" t="s">
         <v>39</v>
@@ -29096,7 +29096,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>38</v>
@@ -29105,7 +29105,7 @@
         <v>50</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F270" s="4">
         <v>25</v>
@@ -29194,16 +29194,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C271" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F271" s="4">
         <v>24</v>
@@ -29292,7 +29292,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>38</v>
@@ -29301,7 +29301,7 @@
         <v>72</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F272" s="4">
         <v>39</v>
@@ -29390,7 +29390,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>38</v>
@@ -29488,7 +29488,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>38</v>
@@ -29497,7 +29497,7 @@
         <v>72</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F274" s="4">
         <v>28</v>
@@ -29586,7 +29586,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>38</v>
@@ -29595,7 +29595,7 @@
         <v>50</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F275" s="4">
         <v>25</v>
@@ -29684,7 +29684,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>38</v>
@@ -29693,7 +29693,7 @@
         <v>54</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F276" s="4">
         <v>26</v>
@@ -29782,7 +29782,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>38</v>
@@ -29880,7 +29880,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>53</v>
@@ -29889,7 +29889,7 @@
         <v>62</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F278" s="4">
         <v>29</v>
@@ -29978,16 +29978,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C279" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F279" s="4">
         <v>19</v>
@@ -30076,16 +30076,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F280" s="4">
         <v>26</v>
@@ -30174,7 +30174,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>38</v>
@@ -30183,7 +30183,7 @@
         <v>47</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F281" s="4">
         <v>25</v>
@@ -30272,7 +30272,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>38</v>
@@ -30370,7 +30370,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>71</v>
@@ -30468,16 +30468,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F284" s="4">
         <v>28</v>
@@ -30566,16 +30566,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C285" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F285" s="4">
         <v>24</v>
@@ -30664,16 +30664,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F286" s="4">
         <v>27</v>
@@ -30762,16 +30762,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F287" s="4">
         <v>27</v>
@@ -30860,7 +30860,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>38</v>
@@ -30958,7 +30958,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>74</v>
@@ -31056,7 +31056,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>38</v>
@@ -31154,7 +31154,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>38</v>
@@ -31163,7 +31163,7 @@
         <v>50</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F291" s="4">
         <v>30</v>
@@ -31252,10 +31252,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>62</v>
@@ -31350,16 +31350,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F293" s="4">
         <v>23</v>
@@ -31448,10 +31448,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>50</v>
@@ -31546,13 +31546,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E295" s="4" t="s">
         <v>45</v>
@@ -31644,7 +31644,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>38</v>
@@ -31653,7 +31653,7 @@
         <v>32</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F296" s="4">
         <v>34</v>
@@ -31740,7 +31740,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>38</v>
@@ -31749,7 +31749,7 @@
         <v>47</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F297" s="4">
         <v>23</v>
@@ -31838,16 +31838,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F298" s="4">
         <v>27</v>
@@ -31936,7 +31936,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>38</v>
@@ -32034,10 +32034,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>50</v>
@@ -32132,10 +32132,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>50</v>
@@ -32230,7 +32230,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>38</v>
@@ -32328,10 +32328,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>50</v>
@@ -32426,10 +32426,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>72</v>
@@ -32524,10 +32524,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>72</v>
@@ -32622,7 +32622,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>57</v>
@@ -32631,7 +32631,7 @@
         <v>47</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F306" s="4">
         <v>27</v>
@@ -32720,13 +32720,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>64</v>
@@ -32818,13 +32818,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>45</v>
@@ -32916,7 +32916,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>38</v>
@@ -32925,7 +32925,7 @@
         <v>72</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F309" s="4">
         <v>28</v>
@@ -33014,7 +33014,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>71</v>
@@ -33112,16 +33112,16 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F311" s="4">
         <v>26</v>
@@ -33210,16 +33210,16 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F312" s="4">
         <v>29</v>
@@ -33308,10 +33308,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>54</v>
@@ -33406,7 +33406,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>74</v>
@@ -33415,7 +33415,7 @@
         <v>62</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F314" s="4">
         <v>33</v>
@@ -33504,7 +33504,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>38</v>
@@ -33602,10 +33602,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>50</v>
@@ -33700,7 +33700,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>57</v>
@@ -33709,7 +33709,7 @@
         <v>54</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F317" s="4">
         <v>28</v>
@@ -33798,7 +33798,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>38</v>
@@ -33896,7 +33896,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>31</v>
@@ -33994,7 +33994,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>71</v>
@@ -34003,7 +34003,7 @@
         <v>62</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F320" s="4">
         <v>29</v>
@@ -34092,7 +34092,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>38</v>
@@ -34101,7 +34101,7 @@
         <v>72</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F321" s="4">
         <v>26</v>
@@ -34190,10 +34190,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>62</v>
@@ -34288,7 +34288,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>38</v>
@@ -34386,16 +34386,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F324" s="4">
         <v>25</v>
@@ -34484,7 +34484,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>38</v>
@@ -34582,7 +34582,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>38</v>
@@ -34591,7 +34591,7 @@
         <v>72</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F326" s="4">
         <v>23</v>
@@ -34680,7 +34680,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>38</v>
@@ -34689,7 +34689,7 @@
         <v>47</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F327" s="4">
         <v>32</v>
@@ -34778,13 +34778,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E328" s="4" t="s">
         <v>55</v>
@@ -34876,13 +34876,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E329" s="4" t="s">
         <v>58</v>
@@ -34974,16 +34974,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C330" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="C330" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F330" s="4">
         <v>24</v>
@@ -35072,7 +35072,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>38</v>
@@ -35170,16 +35170,16 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F332" s="4">
         <v>32</v>
@@ -35268,7 +35268,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>38</v>
@@ -35366,7 +35366,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>38</v>
@@ -35375,7 +35375,7 @@
         <v>50</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F334" s="4">
         <v>23</v>
@@ -35464,7 +35464,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>38</v>
@@ -35473,7 +35473,7 @@
         <v>50</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F335" s="4">
         <v>31</v>
@@ -35560,7 +35560,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>57</v>
@@ -35658,13 +35658,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E337" s="4" t="s">
         <v>33</v>
@@ -35756,7 +35756,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>38</v>
@@ -35854,10 +35854,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>50</v>
@@ -35952,7 +35952,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>53</v>
@@ -35961,7 +35961,7 @@
         <v>32</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F340" s="4">
         <v>31</v>
@@ -36048,7 +36048,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>38</v>
@@ -36144,7 +36144,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>38</v>
@@ -36242,10 +36242,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>62</v>
@@ -36340,13 +36340,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E344" s="4" t="s">
         <v>51</v>
@@ -36438,16 +36438,16 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F345" s="4">
         <v>27</v>
@@ -36536,16 +36536,16 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F346" s="4">
         <v>20</v>
@@ -36634,7 +36634,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>57</v>
@@ -36643,7 +36643,7 @@
         <v>72</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F347" s="4">
         <v>27</v>
@@ -36732,7 +36732,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>38</v>
@@ -36830,16 +36830,16 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F349" s="4">
         <v>24</v>
@@ -36928,7 +36928,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>38</v>
@@ -37026,7 +37026,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>38</v>
@@ -37124,7 +37124,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>38</v>
@@ -37133,7 +37133,7 @@
         <v>50</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F352" s="4">
         <v>33</v>
@@ -37222,16 +37222,16 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F353" s="4">
         <v>25</v>
@@ -37320,7 +37320,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>38</v>
@@ -37329,7 +37329,7 @@
         <v>50</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F354" s="4">
         <v>32</v>
@@ -37418,7 +37418,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>38</v>
@@ -37516,7 +37516,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>38</v>
@@ -37614,7 +37614,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>38</v>
@@ -37712,16 +37712,16 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F358" s="4">
         <v>28</v>
@@ -37810,7 +37810,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>38</v>
@@ -37819,7 +37819,7 @@
         <v>47</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F359" s="4">
         <v>30</v>
@@ -37908,13 +37908,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E360" s="4" t="s">
         <v>48</v>
@@ -38006,7 +38006,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>38</v>
@@ -38104,13 +38104,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E362" s="4" t="s">
         <v>64</v>
@@ -38202,16 +38202,16 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C363" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="C363" s="4" t="s">
-        <v>462</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F363" s="4">
         <v>26</v>
@@ -38300,10 +38300,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>62</v>
@@ -38398,10 +38398,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C365" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>47</v>
@@ -38496,16 +38496,16 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F366" s="4">
         <v>26</v>
@@ -38594,7 +38594,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>38</v>
@@ -38603,7 +38603,7 @@
         <v>47</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F367" s="4">
         <v>27</v>
@@ -38692,7 +38692,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>38</v>
@@ -38701,7 +38701,7 @@
         <v>62</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F368" s="4">
         <v>31</v>
@@ -38790,16 +38790,16 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F369" s="4">
         <v>27</v>
@@ -38888,7 +38888,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>74</v>
@@ -38986,7 +38986,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>71</v>
@@ -38995,7 +38995,7 @@
         <v>50</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F371" s="4">
         <v>20</v>
@@ -39084,7 +39084,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>38</v>
@@ -39182,7 +39182,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>71</v>
@@ -39280,7 +39280,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>38</v>
@@ -39289,7 +39289,7 @@
         <v>50</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F374" s="4">
         <v>22</v>
@@ -39378,7 +39378,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>38</v>
@@ -39387,7 +39387,7 @@
         <v>50</v>
       </c>
       <c r="E375" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F375" s="4">
         <v>30</v>
@@ -39476,7 +39476,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>38</v>
@@ -39485,7 +39485,7 @@
         <v>32</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F376" s="4">
         <v>23</v>
@@ -39572,7 +39572,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>71</v>
@@ -39581,7 +39581,7 @@
         <v>32</v>
       </c>
       <c r="E377" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F377" s="4">
         <v>28</v>
@@ -39668,7 +39668,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>38</v>
@@ -39677,7 +39677,7 @@
         <v>50</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F378" s="4">
         <v>28</v>
@@ -39764,10 +39764,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>72</v>
@@ -39862,10 +39862,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>62</v>
@@ -39960,16 +39960,16 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E381" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F381" s="4">
         <v>30</v>
@@ -40058,10 +40058,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>47</v>
@@ -40156,16 +40156,16 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E383" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F383" s="4">
         <v>21</v>
@@ -40206,13 +40206,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E384" s="4" t="s">
         <v>55</v>
@@ -40304,7 +40304,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>53</v>
@@ -40313,7 +40313,7 @@
         <v>50</v>
       </c>
       <c r="E385" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F385" s="4">
         <v>25</v>
@@ -40402,7 +40402,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>38</v>
@@ -40411,7 +40411,7 @@
         <v>50</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F386" s="4">
         <v>20</v>
@@ -40500,7 +40500,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>38</v>
@@ -40598,7 +40598,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>74</v>
@@ -40696,7 +40696,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>38</v>
@@ -40794,10 +40794,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>32</v>
@@ -40890,10 +40890,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C391" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>47</v>
@@ -40988,13 +40988,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E392" s="4" t="s">
         <v>39</v>
@@ -41086,13 +41086,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C393" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C393" s="4" t="s">
-        <v>494</v>
-      </c>
       <c r="D393" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E393" s="4" t="s">
         <v>36</v>
@@ -41184,10 +41184,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C394" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="C394" s="4" t="s">
-        <v>496</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>50</v>
@@ -41282,13 +41282,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E395" s="4" t="s">
         <v>48</v>
@@ -41380,7 +41380,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>38</v>
@@ -41389,7 +41389,7 @@
         <v>72</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F396" s="4">
         <v>27</v>
@@ -41478,10 +41478,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>50</v>
@@ -41574,7 +41574,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>38</v>
@@ -41672,7 +41672,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>38</v>
@@ -41681,7 +41681,7 @@
         <v>50</v>
       </c>
       <c r="E399" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F399" s="4">
         <v>30</v>
@@ -41770,7 +41770,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>38</v>
@@ -41779,7 +41779,7 @@
         <v>47</v>
       </c>
       <c r="E400" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F400" s="4">
         <v>21</v>
@@ -41868,7 +41868,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>38</v>
@@ -41877,7 +41877,7 @@
         <v>50</v>
       </c>
       <c r="E401" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F401" s="4">
         <v>30</v>
@@ -41966,13 +41966,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E402" s="4" t="s">
         <v>48</v>
@@ -42064,7 +42064,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>38</v>
@@ -42073,7 +42073,7 @@
         <v>50</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F403" s="4">
         <v>27</v>
@@ -42162,7 +42162,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>38</v>
@@ -42260,16 +42260,16 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F405" s="4">
         <v>20</v>
@@ -42358,7 +42358,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>38</v>
@@ -42456,13 +42456,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E407" s="4" t="s">
         <v>41</v>
@@ -42554,7 +42554,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>38</v>
@@ -42563,7 +42563,7 @@
         <v>72</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F408" s="4">
         <v>20</v>
@@ -42652,7 +42652,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>31</v>
@@ -42750,7 +42750,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>38</v>
@@ -42759,7 +42759,7 @@
         <v>72</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F410" s="4">
         <v>26</v>
@@ -42848,13 +42848,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E411" s="4" t="s">
         <v>36</v>
@@ -42946,10 +42946,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>50</v>
@@ -43044,10 +43044,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C413" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>515</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>62</v>
@@ -43142,16 +43142,16 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E414" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F414" s="4">
         <v>22</v>
@@ -43240,16 +43240,16 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E415" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F415" s="4">
         <v>31</v>
@@ -43338,13 +43338,13 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E416" s="4" t="s">
         <v>39</v>
@@ -43436,16 +43436,16 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E417" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F417" s="4">
         <v>23</v>
@@ -43534,16 +43534,16 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F418" s="4">
         <v>30</v>
@@ -43632,7 +43632,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>71</v>
@@ -43641,7 +43641,7 @@
         <v>47</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F419" s="4">
         <v>28</v>
@@ -43730,7 +43730,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>38</v>
@@ -43828,10 +43828,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>50</v>
@@ -43926,16 +43926,16 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F422" s="4">
         <v>26</v>
@@ -44024,13 +44024,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E423" s="4" t="s">
         <v>51</v>
@@ -44122,16 +44122,16 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F424" s="4">
         <v>26</v>
@@ -44220,7 +44220,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>38</v>
@@ -44229,7 +44229,7 @@
         <v>50</v>
       </c>
       <c r="E425" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F425" s="4">
         <v>29</v>
@@ -44318,7 +44318,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>38</v>
@@ -44327,7 +44327,7 @@
         <v>32</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F426" s="4">
         <v>24</v>
@@ -44414,13 +44414,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E427" s="4" t="s">
         <v>41</v>
@@ -44512,16 +44512,16 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C428" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="C428" s="4" t="s">
-        <v>529</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F428" s="4">
         <v>31</v>
@@ -44608,7 +44608,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>38</v>
@@ -44706,7 +44706,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>38</v>
@@ -44715,7 +44715,7 @@
         <v>54</v>
       </c>
       <c r="E430" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F430" s="4">
         <v>26</v>
@@ -44804,16 +44804,16 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C431" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="C431" s="4" t="s">
-        <v>494</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E431" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F431" s="4">
         <v>27</v>
@@ -44902,7 +44902,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>38</v>
@@ -45000,7 +45000,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>38</v>
@@ -45098,7 +45098,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>38</v>
@@ -45107,7 +45107,7 @@
         <v>47</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F434" s="4">
         <v>31</v>
@@ -45196,13 +45196,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E435" s="4" t="s">
         <v>48</v>
@@ -45294,7 +45294,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>38</v>
@@ -45303,7 +45303,7 @@
         <v>72</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F436" s="4">
         <v>29</v>
@@ -45392,7 +45392,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>38</v>
@@ -45401,7 +45401,7 @@
         <v>72</v>
       </c>
       <c r="E437" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F437" s="4">
         <v>21</v>
@@ -45490,7 +45490,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>38</v>
@@ -45588,7 +45588,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>57</v>
@@ -45597,7 +45597,7 @@
         <v>62</v>
       </c>
       <c r="E439" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F439" s="4">
         <v>22</v>
@@ -45686,16 +45686,16 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E440" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F440" s="4">
         <v>22</v>
@@ -45784,7 +45784,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>38</v>
@@ -45793,7 +45793,7 @@
         <v>72</v>
       </c>
       <c r="E441" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F441" s="4">
         <v>24</v>
@@ -45882,7 +45882,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>38</v>
@@ -45980,7 +45980,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>71</v>
@@ -45989,7 +45989,7 @@
         <v>47</v>
       </c>
       <c r="E443" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F443" s="4">
         <v>34</v>
@@ -46076,7 +46076,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>38</v>
@@ -46085,7 +46085,7 @@
         <v>50</v>
       </c>
       <c r="E444" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F444" s="4">
         <v>19</v>
@@ -46172,7 +46172,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>38</v>
@@ -46181,7 +46181,7 @@
         <v>32</v>
       </c>
       <c r="E445" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F445" s="4">
         <v>26</v>
@@ -46268,16 +46268,16 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F446" s="4">
         <v>31</v>
@@ -46366,13 +46366,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E447" s="4" t="s">
         <v>45</v>
@@ -46464,16 +46464,16 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E448" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F448" s="4">
         <v>20</v>
@@ -46562,7 +46562,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>38</v>
@@ -46658,7 +46658,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>74</v>
@@ -46667,7 +46667,7 @@
         <v>50</v>
       </c>
       <c r="E450" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F450" s="4">
         <v>29</v>
@@ -46756,7 +46756,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>38</v>
@@ -46854,7 +46854,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>38</v>
@@ -46952,7 +46952,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>71</v>
@@ -46961,7 +46961,7 @@
         <v>62</v>
       </c>
       <c r="E453" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F453" s="4">
         <v>29</v>
@@ -47050,13 +47050,13 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E454" s="4" t="s">
         <v>45</v>
@@ -47148,13 +47148,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E455" s="4" t="s">
         <v>36</v>
@@ -47246,7 +47246,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>38</v>
@@ -47342,13 +47342,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E457" s="4" t="s">
         <v>64</v>
@@ -47440,7 +47440,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>38</v>
@@ -47538,16 +47538,16 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F459" s="4">
         <v>40</v>
@@ -47636,7 +47636,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>38</v>
@@ -47734,16 +47734,16 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E461" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F461" s="4">
         <v>23</v>
@@ -47832,7 +47832,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>38</v>
@@ -47928,7 +47928,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>38</v>
@@ -47937,7 +47937,7 @@
         <v>50</v>
       </c>
       <c r="E463" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F463" s="4">
         <v>19</v>
@@ -48026,7 +48026,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>74</v>
@@ -48035,7 +48035,7 @@
         <v>47</v>
       </c>
       <c r="E464" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F464" s="4">
         <v>25</v>
@@ -48124,13 +48124,13 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E465" s="4" t="s">
         <v>41</v>
@@ -48222,7 +48222,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>38</v>
@@ -48231,7 +48231,7 @@
         <v>50</v>
       </c>
       <c r="E466" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F466" s="4">
         <v>20</v>
@@ -48318,7 +48318,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>38</v>
@@ -48327,7 +48327,7 @@
         <v>50</v>
       </c>
       <c r="E467" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F467" s="4">
         <v>29</v>
@@ -48416,7 +48416,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>38</v>
@@ -48425,7 +48425,7 @@
         <v>62</v>
       </c>
       <c r="E468" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F468" s="4">
         <v>20</v>
@@ -48466,7 +48466,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>38</v>
@@ -48475,7 +48475,7 @@
         <v>47</v>
       </c>
       <c r="E469" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F469" s="4">
         <v>21</v>
@@ -48564,13 +48564,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C470" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="C470" s="4" t="s">
-        <v>570</v>
-      </c>
       <c r="D470" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E470" s="4" t="s">
         <v>33</v>
@@ -48662,7 +48662,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>38</v>
@@ -48760,7 +48760,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>38</v>
@@ -48858,7 +48858,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>38</v>
@@ -48954,10 +48954,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>72</v>
@@ -49052,13 +49052,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E475" s="4" t="s">
         <v>51</v>
@@ -49150,10 +49150,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C476" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="C476" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>72</v>
@@ -49248,16 +49248,16 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E477" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F477" s="4">
         <v>24</v>
@@ -49346,10 +49346,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>47</v>
@@ -49444,7 +49444,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>38</v>
@@ -49542,13 +49542,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>51</v>
@@ -49638,7 +49638,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>38</v>
@@ -49647,7 +49647,7 @@
         <v>32</v>
       </c>
       <c r="E481" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F481" s="4">
         <v>41</v>
@@ -49734,10 +49734,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D482" s="4" t="s">
         <v>50</v>
@@ -49832,16 +49832,16 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E483" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F483" s="4">
         <v>31</v>
@@ -49928,16 +49928,16 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D484" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E484" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F484" s="4">
         <v>23</v>
@@ -50024,7 +50024,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>71</v>
@@ -50120,7 +50120,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>38</v>
@@ -50129,7 +50129,7 @@
         <v>54</v>
       </c>
       <c r="E486" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F486" s="4">
         <v>28</v>
@@ -50218,7 +50218,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>38</v>
@@ -50314,7 +50314,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>38</v>
@@ -50412,7 +50412,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>71</v>
@@ -50421,7 +50421,7 @@
         <v>72</v>
       </c>
       <c r="E489" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F489" s="4">
         <v>31</v>
@@ -50510,7 +50510,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>57</v>
@@ -50608,7 +50608,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>38</v>
@@ -50617,7 +50617,7 @@
         <v>50</v>
       </c>
       <c r="E491" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F491" s="4">
         <v>20</v>
@@ -50706,7 +50706,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>38</v>
@@ -50804,7 +50804,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>38</v>
@@ -50813,7 +50813,7 @@
         <v>62</v>
       </c>
       <c r="E493" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F493" s="4">
         <v>24</v>
@@ -50902,16 +50902,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C494" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="C494" s="4" t="s">
-        <v>596</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E494" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F494" s="4">
         <v>20</v>
@@ -51000,13 +51000,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E495" s="4" t="s">
         <v>64</v>
@@ -51098,7 +51098,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>38</v>
@@ -51107,7 +51107,7 @@
         <v>50</v>
       </c>
       <c r="E496" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F496" s="4">
         <v>22</v>
@@ -51194,13 +51194,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E497" s="4" t="s">
         <v>33</v>
@@ -51292,7 +51292,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>38</v>
@@ -51390,13 +51390,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E499" s="4" t="s">
         <v>33</v>
@@ -51488,7 +51488,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>38</v>
